--- a/resources/wheels/160 - Кречко.xlsx
+++ b/resources/wheels/160 - Кречко.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -690,16 +690,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -918,9 +918,9 @@
       <c r="F16" s="22">
         <v>13.6</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>22.599999999999998</v>
+        <v>28.354</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1030,7 +1030,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>1.634</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -1042,7 +1044,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>1.832</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -1054,7 +1058,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>2.288</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>
@@ -1594,16 +1600,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1822,9 +1828,9 @@
       <c r="F16" s="22">
         <v>13.6</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>22.599999999999998</v>
+        <v>28.354</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1934,7 +1940,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>1.634</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -1946,7 +1954,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>1.832</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -1958,7 +1968,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>2.288</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>
@@ -2498,16 +2510,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2726,9 +2738,9 @@
       <c r="F16" s="22">
         <v>21.9</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>30.9</v>
+        <v>36.653999999999996</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2838,7 +2850,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>1.634</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -2850,7 +2864,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>1.832</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -2862,7 +2878,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>2.288</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>
@@ -3402,16 +3420,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3630,9 +3648,9 @@
       <c r="F16" s="22">
         <v>21.9</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>30.9</v>
+        <v>36.653999999999996</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3742,7 +3760,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>1.634</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -3754,7 +3774,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>1.832</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -3766,7 +3788,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>2.288</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>
@@ -4306,16 +4330,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="19" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="19" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4512,9 +4536,9 @@
       <c r="F16" s="22">
         <v>57.5</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>63</v>
+        <v>68.75399999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4618,7 +4642,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>1.634</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -4628,7 +4654,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>1.832</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -4638,7 +4666,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>2.288</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>
@@ -5162,16 +5192,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5386,9 +5416,9 @@
       <c r="F16" s="22">
         <v>92.6</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>101.6</v>
+        <v>107.35399999999998</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5498,7 +5528,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>1.634</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -5510,7 +5542,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>1.832</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -5522,7 +5556,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>2.288</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>
@@ -6065,16 +6101,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6289,9 +6325,9 @@
       <c r="F16" s="22">
         <v>92.6</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>101.6</v>
+        <v>107.35399999999998</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6401,7 +6437,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>1.634</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -6413,7 +6451,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>1.832</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -6425,7 +6465,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>2.288</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>

--- a/resources/wheels/160 - Кречко.xlsx
+++ b/resources/wheels/160 - Кречко.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Колесо 6" sheetId="5" r:id="rId6"/>
     <sheet name="Колесо 7" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="57">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -160,6 +160,42 @@
   </si>
   <si>
     <t>AB 5980-7</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -684,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -920,7 +956,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>28.354</v>
+        <v>30.881</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1030,8 +1066,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>1.634</v>
+      <c r="F24" s="22">
+        <v>1.6339999999999999</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
@@ -1044,8 +1080,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
-        <v>1.832</v>
+      <c r="F25" s="22">
+        <v>1.8320000000000001</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
@@ -1058,8 +1094,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>2.288</v>
+      <c r="F26" s="22">
+        <v>2.2879999999999998</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
@@ -1072,7 +1108,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>1.956</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
     </row>
@@ -1084,7 +1122,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
     </row>
@@ -1096,7 +1136,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.399</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="5"/>
     </row>
@@ -1105,8 +1147,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.172</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -1115,7 +1161,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -1125,7 +1173,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -1135,7 +1185,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -1145,7 +1197,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -1155,7 +1209,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -1165,7 +1221,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -1175,7 +1233,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -1185,7 +1245,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -1195,7 +1257,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -1205,7 +1269,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -1215,7 +1281,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -1595,7 +1663,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1898,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>28.354</v>
+        <v>30.881</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1940,8 +2008,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>1.634</v>
+      <c r="F24" s="22">
+        <v>1.6339999999999999</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
@@ -1954,8 +2022,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
-        <v>1.832</v>
+      <c r="F25" s="22">
+        <v>1.8320000000000001</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
@@ -1968,8 +2036,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>2.288</v>
+      <c r="F26" s="22">
+        <v>2.2879999999999998</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
@@ -1982,7 +2050,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>1.956</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
     </row>
@@ -1994,7 +2064,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
     </row>
@@ -2006,7 +2078,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.399</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="5"/>
     </row>
@@ -2015,8 +2089,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.172</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -2025,7 +2103,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -2035,7 +2115,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -2045,7 +2127,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -2055,7 +2139,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -2065,7 +2151,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -2075,7 +2163,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -2085,7 +2175,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -2095,7 +2187,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -2105,7 +2199,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -2115,7 +2211,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -2125,7 +2223,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -2505,7 +2605,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2740,7 +2840,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>36.653999999999996</v>
+        <v>39.181</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2850,8 +2950,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>1.634</v>
+      <c r="F24" s="22">
+        <v>1.6339999999999999</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
@@ -2864,8 +2964,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
-        <v>1.832</v>
+      <c r="F25" s="22">
+        <v>1.8320000000000001</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
@@ -2878,8 +2978,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>2.288</v>
+      <c r="F26" s="22">
+        <v>2.2879999999999998</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
@@ -2892,7 +2992,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>1.956</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
     </row>
@@ -2904,7 +3006,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
     </row>
@@ -2916,7 +3020,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.399</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="5"/>
     </row>
@@ -2925,8 +3031,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.172</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -2935,7 +3045,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -2945,7 +3057,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -2955,7 +3069,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -2965,7 +3081,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -2975,7 +3093,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -2985,7 +3105,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -2995,7 +3117,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -3005,7 +3129,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -3015,7 +3141,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -3025,7 +3153,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -3035,7 +3165,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -3415,7 +3547,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3650,7 +3782,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>36.653999999999996</v>
+        <v>39.181</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3760,8 +3892,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>1.634</v>
+      <c r="F24" s="22">
+        <v>1.6339999999999999</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
@@ -3774,8 +3906,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
-        <v>1.832</v>
+      <c r="F25" s="22">
+        <v>1.8320000000000001</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
@@ -3788,8 +3920,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>2.288</v>
+      <c r="F26" s="22">
+        <v>2.2879999999999998</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
@@ -3802,7 +3934,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>1.956</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
     </row>
@@ -3814,7 +3948,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
     </row>
@@ -3826,7 +3962,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.399</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="5"/>
     </row>
@@ -3835,8 +3973,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.172</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -3845,7 +3987,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3855,7 +3999,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3865,7 +4011,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -3875,7 +4023,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -3885,7 +4035,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -3895,7 +4047,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -3905,7 +4059,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -3915,7 +4071,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -3925,7 +4083,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -3935,7 +4095,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -3945,7 +4107,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -4325,7 +4489,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4538,7 +4702,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>68.75399999999999</v>
+        <v>71.28099999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4642,8 +4806,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>1.634</v>
+      <c r="F24" s="22">
+        <v>1.6339999999999999</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
@@ -4654,8 +4818,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
-        <v>1.832</v>
+      <c r="F25" s="22">
+        <v>1.8320000000000001</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
@@ -4666,8 +4830,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>2.288</v>
+      <c r="F26" s="22">
+        <v>2.2879999999999998</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
@@ -4678,7 +4842,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>1.956</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
     </row>
@@ -4688,7 +4854,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
     </row>
@@ -4698,15 +4866,21 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.399</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.172</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -4714,7 +4888,9 @@
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -4723,7 +4899,9 @@
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="D32" s="23"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -4732,7 +4910,9 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="D33" s="23"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -4741,7 +4921,9 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -4750,7 +4932,9 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="D35" s="23"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -4759,7 +4943,9 @@
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -4768,7 +4954,9 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -4777,7 +4965,9 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="D38" s="23"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -4786,7 +4976,9 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="D39" s="23"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -4795,7 +4987,9 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="D40" s="23"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -4804,7 +4998,9 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="D41" s="23"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -5187,7 +5383,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5418,7 +5614,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>107.35399999999998</v>
+        <v>109.88099999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5528,8 +5724,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>1.634</v>
+      <c r="F24" s="22">
+        <v>1.6339999999999999</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
@@ -5542,8 +5738,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
-        <v>1.832</v>
+      <c r="F25" s="22">
+        <v>1.8320000000000001</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
@@ -5556,8 +5752,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>2.288</v>
+      <c r="F26" s="22">
+        <v>2.2879999999999998</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
@@ -5570,7 +5766,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>1.956</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
     </row>
@@ -5582,7 +5780,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
     </row>
@@ -5594,7 +5794,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.399</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="5"/>
     </row>
@@ -5603,8 +5805,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.172</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -5613,7 +5819,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -5623,7 +5831,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -5633,7 +5843,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -5643,7 +5855,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -5653,7 +5867,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -5663,7 +5879,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -5673,7 +5891,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -5683,7 +5903,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -5693,7 +5915,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -5703,7 +5927,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -5713,7 +5939,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -6096,7 +6324,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6327,7 +6555,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>107.35399999999998</v>
+        <v>109.88099999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6437,8 +6665,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>1.634</v>
+      <c r="F24" s="22">
+        <v>1.6339999999999999</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
@@ -6451,8 +6679,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
-        <v>1.832</v>
+      <c r="F25" s="22">
+        <v>1.8320000000000001</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
@@ -6465,8 +6693,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="n">
-        <v>2.288</v>
+      <c r="F26" s="22">
+        <v>2.2879999999999998</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
@@ -6479,7 +6707,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22">
+        <v>1.956</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
     </row>
@@ -6491,7 +6721,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
     </row>
@@ -6503,7 +6735,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="n">
+        <v>0.399</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="5"/>
     </row>
@@ -6512,8 +6746,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.172</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -6522,7 +6760,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -6532,7 +6772,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -6542,7 +6784,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -6552,7 +6796,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -6562,7 +6808,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -6572,7 +6820,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -6582,7 +6832,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -6592,7 +6844,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -6602,7 +6856,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -6612,7 +6868,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -6622,7 +6880,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
